--- a/Dashboards/dashboard_exame_teorico.xlsx
+++ b/Dashboards/dashboard_exame_teorico.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fgv\4 semestre\MI\Minimundo-EAL\Dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C63F959-CDA4-4D00-AE00-3A82344909FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C103D2C-85EC-4FD9-871E-6923E3EA4590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{3C75C30D-4B0D-4E40-B830-B15C917423B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{3C75C30D-4B0D-4E40-B830-B15C917423B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="11" r:id="rId1"/>
-    <sheet name="fact_exame_teorico" sheetId="8" r:id="rId2"/>
-    <sheet name="DynamicTables" sheetId="9" r:id="rId3"/>
-    <sheet name="Dashboard " sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId2"/>
+    <sheet name="fact_exame_teorico" sheetId="8" r:id="rId3"/>
+    <sheet name="DynamicTables" sheetId="9" r:id="rId4"/>
+    <sheet name="Dashboard " sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="1" hidden="1">fact_exame_teorico!$A$1:$AI$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Dashboard '!$A$1:$BY$34</definedName>
+    <definedName name="DadosExternos_1" localSheetId="2" hidden="1">fact_exame_teorico!$A$1:$AI$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Dashboard '!$A$1:$BY$34</definedName>
     <definedName name="SegmentaçãodeDados_calendarionomediasemana">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_statusexame">#N/A</definedName>
     <definedName name="Slicer_CalendarioAno">#N/A</definedName>
@@ -28,21 +29,22 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId5"/>
-    <pivotCache cacheId="23" r:id="rId6"/>
+    <pivotCache cacheId="29" r:id="rId6"/>
+    <pivotCache cacheId="30" r:id="rId7"/>
+    <pivotCache cacheId="39" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="24" r:id="rId7"/>
+        <pivotCache cacheId="31" r:id="rId9"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId8"/>
-        <x14:slicerCache r:id="rId9"/>
         <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -87,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="268">
   <si>
     <t>September</t>
   </si>
@@ -888,6 +890,9 @@
   </si>
   <si>
     <t>Terça</t>
+  </si>
+  <si>
+    <t>Count of calendarionomemes</t>
   </si>
 </sst>
 </file>
@@ -937,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -947,6 +952,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7024,6 +7030,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28226573709633446"/>
+          <c:y val="3.6538613690471906E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7115,7 +7129,7 @@
         <c:idx val="11"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1">
+            <a:schemeClr val="accent5">
               <a:lumMod val="20000"/>
               <a:lumOff val="80000"/>
             </a:schemeClr>
@@ -7132,7 +7146,10 @@
         <c:idx val="12"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -7146,7 +7163,9 @@
         <c:idx val="13"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -7194,7 +7213,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="20000"/>
                   <a:lumOff val="80000"/>
                 </a:schemeClr>
@@ -7217,7 +7236,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -7237,7 +7259,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -7405,8 +7429,6 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
@@ -12888,6 +12910,129 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gustavo" refreshedDate="45978.011695370369" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="43" xr:uid="{517C9B9D-1B45-40BA-ACAC-36345A94E4BC}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="fact_exame_teorico"/>
+  </cacheSource>
+  <cacheFields count="35">
+    <cacheField name="skaluno" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="skinstrutor" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="skcalendario" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="exameid" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="205" maxValue="280"/>
+    </cacheField>
+    <cacheField name="dthrinicio" numFmtId="22">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-09-19T10:00:00" maxDate="2025-10-20T10:00:00"/>
+    </cacheField>
+    <cacheField name="dthrfim" numFmtId="22">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-09-19T12:00:00" maxDate="2025-10-20T12:00:00"/>
+    </cacheField>
+    <cacheField name="statusexame" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="nota" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4000" maxValue="9500"/>
+    </cacheField>
+    <cacheField name="skaluno_1" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="alunoid" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="105" maxValue="193"/>
+    </cacheField>
+    <cacheField name="alunonome" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="alunoemail" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="alunocelular" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21981231111" maxValue="21990001122"/>
+    </cacheField>
+    <cacheField name="datanascimento" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1998-09-14T00:00:00" maxDate="2006-09-28T00:00:00"/>
+    </cacheField>
+    <cacheField name="bairro" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="municipio" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="estado" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="logradouro" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="skinstrutor_2" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="instrutorid" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="14"/>
+    </cacheField>
+    <cacheField name="instrutornome" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="instrutorsalario" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3200" maxValue="3200"/>
+    </cacheField>
+    <cacheField name="sksala_3" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="salaid" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+    </cacheField>
+    <cacheField name="capacidademax" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="40"/>
+    </cacheField>
+    <cacheField name="skcalendario_4" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="calendariodata" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-09-19T00:00:00" maxDate="2025-10-21T00:00:00"/>
+    </cacheField>
+    <cacheField name="calendariodia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="28"/>
+    </cacheField>
+    <cacheField name="calendariomes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="10"/>
+    </cacheField>
+    <cacheField name="calendarioano" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2025" maxValue="2025"/>
+    </cacheField>
+    <cacheField name="calendariotrimestre" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="4"/>
+    </cacheField>
+    <cacheField name="calendarionomemes" numFmtId="0">
+      <sharedItems count="2">
+        <s v="September"/>
+        <s v="October  "/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="calendarionomediasemana" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="calendariodiaano" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="262" maxValue="293"/>
+    </cacheField>
+    <cacheField name="calendariotipodia" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45923.843133101851" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{31B5FE83-8684-4023-98B6-6D67BAE853E8}">
   <cacheSource type="worksheet">
     <worksheetSource name="TabelaDespesas"/>
@@ -14684,6 +14829,1602 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="43">
+  <r>
+    <s v="bc72f759-d5d2-4cc3-aff6-699328e5597e"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="612adba8-6f81-4881-896a-2a03a2323255"/>
+    <n v="212"/>
+    <d v="2025-09-28T19:00:00"/>
+    <d v="2025-09-28T21:00:00"/>
+    <s v="Agendado"/>
+    <m/>
+    <s v="bc72f759-d5d2-4cc3-aff6-699328e5597e"/>
+    <n v="152"/>
+    <s v="Julio César Chaves"/>
+    <s v="juliaobd@fgv.br"/>
+    <n v="21982343399"/>
+    <d v="2005-08-31T00:00:00"/>
+    <s v="Flamengo"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Cruz Lima"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="56551cd8-4041-4f89-900b-8a52561431f8"/>
+    <n v="3"/>
+    <n v="30"/>
+    <s v="612adba8-6f81-4881-896a-2a03a2323255"/>
+    <d v="2025-09-28T00:00:00"/>
+    <n v="28"/>
+    <n v="9"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Sunday   "/>
+    <n v="271"/>
+    <s v="Fim de Semana"/>
+  </r>
+  <r>
+    <s v="3452e9d7-45f1-45af-b6ae-9b90aebb64fb"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="f21b2bef-2a8c-427f-8644-3c3ebe89711e"/>
+    <n v="244"/>
+    <d v="2025-10-03T10:00:00"/>
+    <d v="2025-10-03T12:00:00"/>
+    <s v="Reprovado"/>
+    <n v="5000"/>
+    <s v="3452e9d7-45f1-45af-b6ae-9b90aebb64fb"/>
+    <n v="168"/>
+    <s v="Juliana Alves"/>
+    <s v="juliana.alves@example.com"/>
+    <n v="21981231126"/>
+    <d v="2003-02-07T00:00:00"/>
+    <s v="Botafogo"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Marquês de Olinda"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="e019f731-e7d0-441a-868d-704f3822e31a"/>
+    <n v="5"/>
+    <n v="25"/>
+    <s v="f21b2bef-2a8c-427f-8644-3c3ebe89711e"/>
+    <d v="2025-10-03T00:00:00"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Friday   "/>
+    <n v="276"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="83a739ee-afbb-48be-85c7-cb6d307c8d3e"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="f21b2bef-2a8c-427f-8644-3c3ebe89711e"/>
+    <n v="243"/>
+    <d v="2025-10-03T10:00:00"/>
+    <d v="2025-10-03T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="9500"/>
+    <s v="83a739ee-afbb-48be-85c7-cb6d307c8d3e"/>
+    <n v="157"/>
+    <s v="Giovanna Santos"/>
+    <s v="gi.santos@example.com"/>
+    <n v="21981231115"/>
+    <d v="2002-11-30T00:00:00"/>
+    <s v="Botafogo"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Farani"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="e019f731-e7d0-441a-868d-704f3822e31a"/>
+    <n v="5"/>
+    <n v="25"/>
+    <s v="f21b2bef-2a8c-427f-8644-3c3ebe89711e"/>
+    <d v="2025-10-03T00:00:00"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Friday   "/>
+    <n v="276"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="f45d95b4-4ca7-4404-9074-9d44b561ca51"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="f79f3006-3273-4ec9-a196-a59d26c317f7"/>
+    <n v="231"/>
+    <d v="2025-10-01T10:00:00"/>
+    <d v="2025-10-01T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="8500"/>
+    <s v="f45d95b4-4ca7-4404-9074-9d44b561ca51"/>
+    <n v="162"/>
+    <s v="Daniel Oliveira"/>
+    <s v="daniel.o@example.com"/>
+    <n v="21981231120"/>
+    <d v="2005-06-29T00:00:00"/>
+    <s v="Laranjeiras"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Paissandu"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="96ad25ad-886c-4e03-8cfb-2393690247e6"/>
+    <n v="1"/>
+    <n v="30"/>
+    <s v="f79f3006-3273-4ec9-a196-a59d26c317f7"/>
+    <d v="2025-10-01T00:00:00"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Wednesday"/>
+    <n v="274"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="96efe91b-fac9-4603-82e5-4844bef4c9c8"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="46c9625a-3b9c-4e3b-9d96-0c3134bd9696"/>
+    <n v="207"/>
+    <d v="2025-09-22T10:00:00"/>
+    <d v="2025-09-22T11:00:00"/>
+    <s v="Aprovado"/>
+    <n v="9200"/>
+    <s v="96efe91b-fac9-4603-82e5-4844bef4c9c8"/>
+    <n v="105"/>
+    <s v="Júlia Alves"/>
+    <s v="julia.alves@example.com"/>
+    <n v="21988991122"/>
+    <d v="2005-07-19T00:00:00"/>
+    <s v="Barra da Tijuca"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Avenida das Américas"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="f6b834a6-66c9-41e0-956c-a5c36cc4eee2"/>
+    <n v="6"/>
+    <n v="15"/>
+    <s v="46c9625a-3b9c-4e3b-9d96-0c3134bd9696"/>
+    <d v="2025-09-22T00:00:00"/>
+    <n v="22"/>
+    <n v="9"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Monday   "/>
+    <n v="265"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="c49663e7-5252-4610-a8b5-95cff55fee96"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="74508f15-3f7b-4a9e-af83-a526a650f5a9"/>
+    <n v="260"/>
+    <d v="2025-10-15T10:00:00"/>
+    <d v="2025-10-15T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="7700"/>
+    <s v="c49663e7-5252-4610-a8b5-95cff55fee96"/>
+    <n v="183"/>
+    <s v="Elias Ricardo"/>
+    <s v="elias.r@example.com"/>
+    <n v="21981231141"/>
+    <d v="2005-07-19T00:00:00"/>
+    <s v="Laranjeiras"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Gago Coutinho"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="e019f731-e7d0-441a-868d-704f3822e31a"/>
+    <n v="5"/>
+    <n v="25"/>
+    <s v="74508f15-3f7b-4a9e-af83-a526a650f5a9"/>
+    <d v="2025-10-15T00:00:00"/>
+    <n v="15"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Wednesday"/>
+    <n v="288"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="bfe2d849-72b8-42fa-a0a4-d7e351b527eb"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="5f3c3bfd-b2c1-42b1-8302-edb7c3598243"/>
+    <n v="279"/>
+    <d v="2025-10-18T10:00:00"/>
+    <d v="2025-10-18T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="9300"/>
+    <s v="bfe2d849-72b8-42fa-a0a4-d7e351b527eb"/>
+    <n v="191"/>
+    <s v="Maitê Proença"/>
+    <s v="maite.p@example.com"/>
+    <n v="21981231149"/>
+    <d v="2002-01-28T00:00:00"/>
+    <s v="Ipanema"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Joana Angélica"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="b841f578-df33-4423-820e-dae951c6947b"/>
+    <n v="2"/>
+    <n v="30"/>
+    <s v="5f3c3bfd-b2c1-42b1-8302-edb7c3598243"/>
+    <d v="2025-10-18T00:00:00"/>
+    <n v="18"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Saturday "/>
+    <n v="291"/>
+    <s v="Fim de Semana"/>
+  </r>
+  <r>
+    <s v="c65bc819-ed1a-48cd-885e-34db67495232"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="32948966-17d7-4742-a3ff-66982e40f729"/>
+    <n v="254"/>
+    <d v="2025-10-11T10:00:00"/>
+    <d v="2025-10-11T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="9500"/>
+    <s v="c65bc819-ed1a-48cd-885e-34db67495232"/>
+    <n v="173"/>
+    <s v="Felipe Melo"/>
+    <s v="felipe.melo@example.com"/>
+    <n v="21981231131"/>
+    <d v="2002-07-16T00:00:00"/>
+    <s v="Glória"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Taylor"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="b841f578-df33-4423-820e-dae951c6947b"/>
+    <n v="2"/>
+    <n v="30"/>
+    <s v="32948966-17d7-4742-a3ff-66982e40f729"/>
+    <d v="2025-10-11T00:00:00"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Saturday "/>
+    <n v="284"/>
+    <s v="Fim de Semana"/>
+  </r>
+  <r>
+    <s v="b70c30c8-ed39-47c0-b98c-e7baecd3c2dd"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="7f608e55-e488-4863-aa32-a36dff34f923"/>
+    <n v="205"/>
+    <d v="2025-09-19T10:00:00"/>
+    <d v="2025-09-19T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="7800"/>
+    <s v="b70c30c8-ed39-47c0-b98c-e7baecd3c2dd"/>
+    <n v="115"/>
+    <s v="Helena Melo"/>
+    <s v="helena.melo@example.com"/>
+    <n v="21985556677"/>
+    <d v="2005-09-03T00:00:00"/>
+    <s v="Tijuca"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua São Francisco Xavier"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="96ad25ad-886c-4e03-8cfb-2393690247e6"/>
+    <n v="1"/>
+    <n v="30"/>
+    <s v="7f608e55-e488-4863-aa32-a36dff34f923"/>
+    <d v="2025-09-19T00:00:00"/>
+    <n v="19"/>
+    <n v="9"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Friday   "/>
+    <n v="262"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="ca145559-0c1d-4e15-a62d-50ea230e0361"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="5f3c3bfd-b2c1-42b1-8302-edb7c3598243"/>
+    <n v="278"/>
+    <d v="2025-10-18T10:00:00"/>
+    <d v="2025-10-18T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="8100"/>
+    <s v="ca145559-0c1d-4e15-a62d-50ea230e0361"/>
+    <n v="190"/>
+    <s v="Lázaro Ramos"/>
+    <s v="lazaro.r@example.com"/>
+    <n v="21981231148"/>
+    <d v="2003-11-01T00:00:00"/>
+    <s v="Ipanema"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Vinícius de Moraes"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="b841f578-df33-4423-820e-dae951c6947b"/>
+    <n v="2"/>
+    <n v="30"/>
+    <s v="5f3c3bfd-b2c1-42b1-8302-edb7c3598243"/>
+    <d v="2025-10-18T00:00:00"/>
+    <n v="18"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Saturday "/>
+    <n v="291"/>
+    <s v="Fim de Semana"/>
+  </r>
+  <r>
+    <s v="a98a8682-7543-4299-86ac-5f0ee183f584"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="c9cabf45-59cf-4c2e-a7bb-3410ac9018b3"/>
+    <n v="215"/>
+    <d v="2025-09-25T14:00:00"/>
+    <d v="2025-09-25T16:00:00"/>
+    <s v="Aprovado"/>
+    <n v="7000"/>
+    <s v="a98a8682-7543-4299-86ac-5f0ee183f584"/>
+    <n v="155"/>
+    <s v="Larissa Moreira"/>
+    <s v="larissa.m@example.com"/>
+    <n v="21981231113"/>
+    <d v="2006-07-01T00:00:00"/>
+    <s v="Flamengo"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Marquês de Abrantes"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="b841f578-df33-4423-820e-dae951c6947b"/>
+    <n v="2"/>
+    <n v="30"/>
+    <s v="c9cabf45-59cf-4c2e-a7bb-3410ac9018b3"/>
+    <d v="2025-09-25T00:00:00"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Thursday "/>
+    <n v="268"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="52f3b867-cad9-4a35-b4fb-424254fbf30b"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="0170d489-fd5c-48b0-b530-eca8067110d1"/>
+    <n v="216"/>
+    <d v="2025-09-26T09:00:00"/>
+    <d v="2025-09-26T11:00:00"/>
+    <s v="Aprovado"/>
+    <n v="9500"/>
+    <s v="52f3b867-cad9-4a35-b4fb-424254fbf30b"/>
+    <n v="156"/>
+    <s v="Matheus Costa"/>
+    <s v="matheus.costa@example.com"/>
+    <n v="21981231114"/>
+    <d v="2003-09-20T00:00:00"/>
+    <s v="Botafogo"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua da Passagem"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="56551cd8-4041-4f89-900b-8a52561431f8"/>
+    <n v="3"/>
+    <n v="30"/>
+    <s v="0170d489-fd5c-48b0-b530-eca8067110d1"/>
+    <d v="2025-09-26T00:00:00"/>
+    <n v="26"/>
+    <n v="9"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Friday   "/>
+    <n v="269"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="c64b733a-863f-45b6-98f3-d37c952e791e"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="74508f15-3f7b-4a9e-af83-a526a650f5a9"/>
+    <n v="261"/>
+    <d v="2025-10-15T10:00:00"/>
+    <d v="2025-10-15T12:00:00"/>
+    <s v="Reprovado"/>
+    <n v="5500"/>
+    <s v="c64b733a-863f-45b6-98f3-d37c952e791e"/>
+    <n v="184"/>
+    <s v="Fabiana Carla"/>
+    <s v="fabiana.c@example.com"/>
+    <n v="21981231142"/>
+    <d v="2003-03-03T00:00:00"/>
+    <s v="Laranjeiras"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Leite Leal"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="e019f731-e7d0-441a-868d-704f3822e31a"/>
+    <n v="5"/>
+    <n v="25"/>
+    <s v="74508f15-3f7b-4a9e-af83-a526a650f5a9"/>
+    <d v="2025-10-15T00:00:00"/>
+    <n v="15"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Wednesday"/>
+    <n v="288"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="98ea0730-0ab3-4ff4-967d-381786f12108"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="cd96d9ce-6ad6-4447-84d0-a9317ad95d71"/>
+    <n v="224"/>
+    <d v="2025-09-27T19:00:00"/>
+    <d v="2025-09-27T21:00:00"/>
+    <s v="Aprovado"/>
+    <n v="8000"/>
+    <s v="98ea0730-0ab3-4ff4-967d-381786f12108"/>
+    <n v="160"/>
+    <s v="Thiago Almeida"/>
+    <s v="thiago.almeida@example.com"/>
+    <n v="21981231118"/>
+    <d v="2003-08-03T00:00:00"/>
+    <s v="Flamengo"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Avenida Osvaldo Cruz"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="e019f731-e7d0-441a-868d-704f3822e31a"/>
+    <n v="5"/>
+    <n v="25"/>
+    <s v="cd96d9ce-6ad6-4447-84d0-a9317ad95d71"/>
+    <d v="2025-09-27T00:00:00"/>
+    <n v="27"/>
+    <n v="9"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Saturday "/>
+    <n v="270"/>
+    <s v="Fim de Semana"/>
+  </r>
+  <r>
+    <s v="11a59511-d8b4-4c86-8de2-6b3f0a6eac11"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="cd96d9ce-6ad6-4447-84d0-a9317ad95d71"/>
+    <n v="225"/>
+    <d v="2025-09-27T19:00:00"/>
+    <d v="2025-09-27T21:00:00"/>
+    <s v="Reprovado"/>
+    <n v="4000"/>
+    <s v="11a59511-d8b4-4c86-8de2-6b3f0a6eac11"/>
+    <n v="161"/>
+    <s v="Vitória Dias"/>
+    <s v="vitoria.dias@example.com"/>
+    <n v="21981231119"/>
+    <d v="2006-02-14T00:00:00"/>
+    <s v="Laranjeiras"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua General Glicério"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="f6b834a6-66c9-41e0-956c-a5c36cc4eee2"/>
+    <n v="6"/>
+    <n v="15"/>
+    <s v="cd96d9ce-6ad6-4447-84d0-a9317ad95d71"/>
+    <d v="2025-09-27T00:00:00"/>
+    <n v="27"/>
+    <n v="9"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Saturday "/>
+    <n v="270"/>
+    <s v="Fim de Semana"/>
+  </r>
+  <r>
+    <s v="a273f9cc-9c1f-4253-b2d0-a56a1fca782a"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="8ee3c172-f6a2-49f7-81d2-117cd2c2d65a"/>
+    <n v="238"/>
+    <d v="2025-10-08T10:00:00"/>
+    <d v="2025-10-08T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="8000"/>
+    <s v="a273f9cc-9c1f-4253-b2d0-a56a1fca782a"/>
+    <n v="167"/>
+    <s v="Gustavo Gomes"/>
+    <s v="gustavo.gomes@example.com"/>
+    <n v="21981231125"/>
+    <d v="2004-11-28T00:00:00"/>
+    <s v="Botafogo"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Barão de Itambi"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="56551cd8-4041-4f89-900b-8a52561431f8"/>
+    <n v="3"/>
+    <n v="30"/>
+    <s v="8ee3c172-f6a2-49f7-81d2-117cd2c2d65a"/>
+    <d v="2025-10-08T00:00:00"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Wednesday"/>
+    <n v="281"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="a140766d-2864-454a-aa4a-56d1f4a0355a"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <s v="32948966-17d7-4742-a3ff-66982e40f729"/>
+    <n v="255"/>
+    <d v="2025-10-11T10:00:00"/>
+    <d v="2025-10-11T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="8800"/>
+    <s v="a140766d-2864-454a-aa4a-56d1f4a0355a"/>
+    <n v="174"/>
+    <s v="Natália Correia"/>
+    <s v="natalia.c@example.com"/>
+    <n v="21981231132"/>
+    <d v="2005-12-08T00:00:00"/>
+    <s v="Glória"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua do Russel"/>
+    <s v="d848b526-c2ad-470e-b00b-81444dced636"/>
+    <n v="5"/>
+    <s v="Beatriz Costa"/>
+    <n v="3200"/>
+    <s v="b841f578-df33-4423-820e-dae951c6947b"/>
+    <n v="2"/>
+    <n v="30"/>
+    <s v="32948966-17d7-4742-a3ff-66982e40f729"/>
+    <d v="2025-10-11T00:00:00"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Saturday "/>
+    <n v="284"/>
+    <s v="Fim de Semana"/>
+  </r>
+  <r>
+    <s v="0cff73a7-b31b-4b96-874c-81007143d0ba"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="a6d59e37-b233-498a-ab03-c5e7cd069283"/>
+    <n v="280"/>
+    <d v="2025-10-20T10:00:00"/>
+    <d v="2025-10-20T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="7000"/>
+    <s v="0cff73a7-b31b-4b96-874c-81007143d0ba"/>
+    <n v="193"/>
+    <s v="Otávio Augusto"/>
+    <s v="otavio.a@example.com"/>
+    <n v="21981231151"/>
+    <d v="2005-01-30T00:00:00"/>
+    <s v="Ipanema"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Barão da Torre"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="56551cd8-4041-4f89-900b-8a52561431f8"/>
+    <n v="3"/>
+    <n v="30"/>
+    <s v="a6d59e37-b233-498a-ab03-c5e7cd069283"/>
+    <d v="2025-10-20T00:00:00"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Monday   "/>
+    <n v="293"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="8cbbe304-08b0-4075-aff2-2908bd6eaa34"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="7b167354-a3fa-4ef2-84ff-c0d38abbcbeb"/>
+    <n v="206"/>
+    <d v="2025-09-20T10:00:00"/>
+    <d v="2025-09-20T12:00:00"/>
+    <s v="Reprovado"/>
+    <n v="6000"/>
+    <s v="8cbbe304-08b0-4075-aff2-2908bd6eaa34"/>
+    <n v="120"/>
+    <s v="Ravi Moreira"/>
+    <s v="ravi.moreira@example.com"/>
+    <n v="21990001122"/>
+    <d v="2004-02-20T00:00:00"/>
+    <s v="Freguesia"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Araguaia"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="b841f578-df33-4423-820e-dae951c6947b"/>
+    <n v="2"/>
+    <n v="30"/>
+    <s v="7b167354-a3fa-4ef2-84ff-c0d38abbcbeb"/>
+    <d v="2025-09-20T00:00:00"/>
+    <n v="20"/>
+    <n v="9"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Saturday "/>
+    <n v="263"/>
+    <s v="Fim de Semana"/>
+  </r>
+  <r>
+    <s v="35b9ddfc-afe4-4ad6-b957-249d1d74506a"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="760d4946-1d8b-44bc-a73a-28feb8300e0b"/>
+    <n v="209"/>
+    <d v="2025-09-23T19:00:00"/>
+    <d v="2025-09-23T21:00:00"/>
+    <s v="Reprovado"/>
+    <n v="5500"/>
+    <s v="35b9ddfc-afe4-4ad6-b957-249d1d74506a"/>
+    <n v="132"/>
+    <s v="Eduardo Wager"/>
+    <s v="e.wager@email.com"/>
+    <n v="21982343344"/>
+    <d v="2005-08-31T00:00:00"/>
+    <s v="Flamengo"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Cruz Lima"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="b841f578-df33-4423-820e-dae951c6947b"/>
+    <n v="2"/>
+    <n v="30"/>
+    <s v="760d4946-1d8b-44bc-a73a-28feb8300e0b"/>
+    <d v="2025-09-23T00:00:00"/>
+    <n v="23"/>
+    <n v="9"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Tuesday  "/>
+    <n v="266"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="b78dd85b-8625-483b-92e8-6c527f07ca17"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="c9cabf45-59cf-4c2e-a7bb-3410ac9018b3"/>
+    <n v="213"/>
+    <d v="2025-09-25T09:00:00"/>
+    <d v="2025-09-25T11:00:00"/>
+    <s v="Aprovado"/>
+    <n v="8800"/>
+    <s v="b78dd85b-8625-483b-92e8-6c527f07ca17"/>
+    <n v="153"/>
+    <s v="Gabriela Lima"/>
+    <s v="gabriela.lima@example.com"/>
+    <n v="21981231111"/>
+    <d v="2005-10-10T00:00:00"/>
+    <s v="Tijuca"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Conde de Bonfim"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="96ad25ad-886c-4e03-8cfb-2393690247e6"/>
+    <n v="1"/>
+    <n v="30"/>
+    <s v="c9cabf45-59cf-4c2e-a7bb-3410ac9018b3"/>
+    <d v="2025-09-25T00:00:00"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Thursday "/>
+    <n v="268"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="7e04c5b4-2819-48d5-91e7-0076f803273e"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="c9cabf45-59cf-4c2e-a7bb-3410ac9018b3"/>
+    <n v="214"/>
+    <d v="2025-09-25T10:00:00"/>
+    <d v="2025-09-25T12:00:00"/>
+    <s v="Reprovado"/>
+    <n v="6500"/>
+    <s v="7e04c5b4-2819-48d5-91e7-0076f803273e"/>
+    <n v="154"/>
+    <s v="Rafael Azevedo"/>
+    <s v="rafael.azevedo@example.com"/>
+    <n v="21981231112"/>
+    <d v="2004-03-12T00:00:00"/>
+    <s v="Urca"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Avenida Pasteur"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="96ad25ad-886c-4e03-8cfb-2393690247e6"/>
+    <n v="1"/>
+    <n v="30"/>
+    <s v="c9cabf45-59cf-4c2e-a7bb-3410ac9018b3"/>
+    <d v="2025-09-25T00:00:00"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Thursday "/>
+    <n v="268"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="07f4c73a-0a3e-491d-aa88-b316cd5eef06"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="0170d489-fd5c-48b0-b530-eca8067110d1"/>
+    <n v="217"/>
+    <d v="2025-09-26T10:00:00"/>
+    <d v="2025-09-26T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="8100"/>
+    <s v="07f4c73a-0a3e-491d-aa88-b316cd5eef06"/>
+    <n v="158"/>
+    <s v="Bruno Henrique"/>
+    <s v="bruno.h@example.com"/>
+    <n v="21981231116"/>
+    <d v="2005-01-25T00:00:00"/>
+    <s v="Flamengo"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Praia do Flamengo"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="42532722-d893-405a-98c4-105da9dd5390"/>
+    <n v="4"/>
+    <n v="40"/>
+    <s v="0170d489-fd5c-48b0-b530-eca8067110d1"/>
+    <d v="2025-09-26T00:00:00"/>
+    <n v="26"/>
+    <n v="9"/>
+    <n v="2025"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Friday   "/>
+    <n v="269"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="43382b3c-c67e-468f-8560-01832286e2f2"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="f79f3006-3273-4ec9-a196-a59d26c317f7"/>
+    <n v="235"/>
+    <d v="2025-10-01T14:00:00"/>
+    <d v="2025-10-01T16:00:00"/>
+    <s v="Aprovado"/>
+    <n v="9000"/>
+    <s v="43382b3c-c67e-468f-8560-01832286e2f2"/>
+    <n v="164"/>
+    <s v="Leonardo Souza"/>
+    <s v="leo.souza@example.com"/>
+    <n v="21981231122"/>
+    <d v="2003-12-19T00:00:00"/>
+    <s v="Laranjeiras"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Pinheiro Machado"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="56551cd8-4041-4f89-900b-8a52561431f8"/>
+    <n v="3"/>
+    <n v="30"/>
+    <s v="f79f3006-3273-4ec9-a196-a59d26c317f7"/>
+    <d v="2025-10-01T00:00:00"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Wednesday"/>
+    <n v="274"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="1d867304-405f-463d-95f6-c204fb0af8f5"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="f79f3006-3273-4ec9-a196-a59d26c317f7"/>
+    <n v="234"/>
+    <d v="2025-10-01T14:00:00"/>
+    <d v="2025-10-01T16:00:00"/>
+    <s v="Reprovado"/>
+    <n v="4500"/>
+    <s v="1d867304-405f-463d-95f6-c204fb0af8f5"/>
+    <n v="163"/>
+    <s v="Camila Martins"/>
+    <s v="camila.martins@example.com"/>
+    <n v="21981231121"/>
+    <d v="2004-10-05T00:00:00"/>
+    <s v="Laranjeiras"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua das Laranjeiras"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="b841f578-df33-4423-820e-dae951c6947b"/>
+    <n v="2"/>
+    <n v="30"/>
+    <s v="f79f3006-3273-4ec9-a196-a59d26c317f7"/>
+    <d v="2025-10-01T00:00:00"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Wednesday"/>
+    <n v="274"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="623c370b-62bd-4879-827d-20492c48ba2e"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="200f774a-0123-4e19-998e-e0527da04cd0"/>
+    <n v="245"/>
+    <d v="2025-10-04T10:00:00"/>
+    <d v="2025-10-04T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="8800"/>
+    <s v="623c370b-62bd-4879-827d-20492c48ba2e"/>
+    <n v="170"/>
+    <s v="Amanda Ribeiro"/>
+    <s v="amanda.r@example.com"/>
+    <n v="21981231128"/>
+    <d v="2005-09-11T00:00:00"/>
+    <s v="Glória"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Avenida Infante Dom Henrique"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="f6b834a6-66c9-41e0-956c-a5c36cc4eee2"/>
+    <n v="6"/>
+    <n v="15"/>
+    <s v="200f774a-0123-4e19-998e-e0527da04cd0"/>
+    <d v="2025-10-04T00:00:00"/>
+    <n v="4"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Saturday "/>
+    <n v="277"/>
+    <s v="Fim de Semana"/>
+  </r>
+  <r>
+    <s v="ac9f421c-10d7-40ee-9df6-63040ae019e1"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="8ee3c172-f6a2-49f7-81d2-117cd2c2d65a"/>
+    <n v="239"/>
+    <d v="2025-10-08T14:00:00"/>
+    <d v="2025-10-08T16:00:00"/>
+    <s v="Reprovado"/>
+    <n v="6000"/>
+    <s v="ac9f421c-10d7-40ee-9df6-63040ae019e1"/>
+    <n v="169"/>
+    <s v="Rodrigo Barros"/>
+    <s v="rodrigo.barros@example.com"/>
+    <n v="21981231127"/>
+    <d v="2006-06-05T00:00:00"/>
+    <s v="Botafogo"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Muniz Barreto"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="42532722-d893-405a-98c4-105da9dd5390"/>
+    <n v="4"/>
+    <n v="40"/>
+    <s v="8ee3c172-f6a2-49f7-81d2-117cd2c2d65a"/>
+    <d v="2025-10-08T00:00:00"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Wednesday"/>
+    <n v="281"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="0cff73a7-b31b-4b96-874c-81007143d0ba"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="d3f5a69c-ba7b-4132-bdfd-ae3220d71069"/>
+    <n v="280"/>
+    <d v="2025-10-20T10:00:00"/>
+    <d v="2025-10-20T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="7000"/>
+    <s v="0cff73a7-b31b-4b96-874c-81007143d0ba"/>
+    <n v="193"/>
+    <s v="Otávio Augusto"/>
+    <s v="otavio.a@example.com"/>
+    <n v="21981231151"/>
+    <d v="2005-01-30T00:00:00"/>
+    <s v="Ipanema"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Barão da Torre"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="56551cd8-4041-4f89-900b-8a52561431f8"/>
+    <n v="3"/>
+    <n v="30"/>
+    <s v="d3f5a69c-ba7b-4132-bdfd-ae3220d71069"/>
+    <d v="2025-10-20T00:00:00"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Monday   "/>
+    <n v="293"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="d2f96131-69ed-4c5f-916c-a7f7a0f60a0e"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="33491aba-1551-4436-bb76-1d93d28af95a"/>
+    <n v="256"/>
+    <d v="2025-10-13T14:00:00"/>
+    <d v="2025-10-13T16:00:00"/>
+    <s v="Reprovado"/>
+    <n v="6500"/>
+    <s v="d2f96131-69ed-4c5f-916c-a7f7a0f60a0e"/>
+    <n v="175"/>
+    <s v="Vinícius Moraes"/>
+    <s v="vini.moraes@example.com"/>
+    <n v="21981231133"/>
+    <d v="2004-02-21T00:00:00"/>
+    <s v="Catete"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua do Catete"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="56551cd8-4041-4f89-900b-8a52561431f8"/>
+    <n v="3"/>
+    <n v="30"/>
+    <s v="33491aba-1551-4436-bb76-1d93d28af95a"/>
+    <d v="2025-10-13T00:00:00"/>
+    <n v="13"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Monday   "/>
+    <n v="286"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="3a6160e7-7916-41bc-9000-4587ffd141c7"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="33491aba-1551-4436-bb76-1d93d28af95a"/>
+    <n v="257"/>
+    <d v="2025-10-13T14:00:00"/>
+    <d v="2025-10-13T16:00:00"/>
+    <s v="Aprovado"/>
+    <n v="7000"/>
+    <s v="3a6160e7-7916-41bc-9000-4587ffd141c7"/>
+    <n v="177"/>
+    <s v="Lucas Gabriel"/>
+    <s v="lucas.g@example.com"/>
+    <n v="21981231135"/>
+    <d v="2006-09-27T00:00:00"/>
+    <s v="Catete"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Bento Lisboa"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="56551cd8-4041-4f89-900b-8a52561431f8"/>
+    <n v="3"/>
+    <n v="30"/>
+    <s v="33491aba-1551-4436-bb76-1d93d28af95a"/>
+    <d v="2025-10-13T00:00:00"/>
+    <n v="13"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Monday   "/>
+    <n v="286"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="430becfa-27c4-4fd3-bb2e-15c2d45f8873"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="b6561a1f-48e6-4393-81f9-45b5a9f611ce"/>
+    <n v="262"/>
+    <d v="2025-10-16T10:00:00"/>
+    <d v="2025-10-16T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="8000"/>
+    <s v="430becfa-27c4-4fd3-bb2e-15c2d45f8873"/>
+    <n v="185"/>
+    <s v="Gabriel Jesus"/>
+    <s v="g.jesus@example.com"/>
+    <n v="21981231143"/>
+    <d v="2002-04-03T00:00:00"/>
+    <s v="Laranjeiras"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Alice"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="f6b834a6-66c9-41e0-956c-a5c36cc4eee2"/>
+    <n v="6"/>
+    <n v="15"/>
+    <s v="b6561a1f-48e6-4393-81f9-45b5a9f611ce"/>
+    <d v="2025-10-16T00:00:00"/>
+    <n v="16"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Thursday "/>
+    <n v="289"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="cceaec43-8ce1-4f1e-9f31-313fe7f73738"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <s v="b6561a1f-48e6-4393-81f9-45b5a9f611ce"/>
+    <n v="263"/>
+    <d v="2025-10-16T10:00:00"/>
+    <d v="2025-10-16T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="9200"/>
+    <s v="cceaec43-8ce1-4f1e-9f31-313fe7f73738"/>
+    <n v="187"/>
+    <s v="Ícaro Silva"/>
+    <s v="icaro.silva@example.com"/>
+    <n v="21981231145"/>
+    <d v="2005-09-17T00:00:00"/>
+    <s v="Laranjeiras"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Professor Estelita Lins"/>
+    <s v="f10239f7-c883-45e6-87c8-4b0796e3cf4e"/>
+    <n v="6"/>
+    <s v="Ricardo Souza"/>
+    <n v="3200"/>
+    <s v="f6b834a6-66c9-41e0-956c-a5c36cc4eee2"/>
+    <n v="6"/>
+    <n v="15"/>
+    <s v="b6561a1f-48e6-4393-81f9-45b5a9f611ce"/>
+    <d v="2025-10-16T00:00:00"/>
+    <n v="16"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Thursday "/>
+    <n v="289"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="f98ee1dc-22c5-4fb1-a67b-587452e0f5fd"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <s v="fecaca8d-9958-4841-82ae-a1bfaf0e9e1b"/>
+    <n v="237"/>
+    <d v="2025-10-02T10:00:00"/>
+    <d v="2025-10-02T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="7500"/>
+    <s v="f98ee1dc-22c5-4fb1-a67b-587452e0f5fd"/>
+    <n v="166"/>
+    <s v="Fernanda Lima"/>
+    <s v="fernanda.lima@example.com"/>
+    <n v="21981231124"/>
+    <d v="2005-08-15T00:00:00"/>
+    <s v="Flamengo"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Senador Vergueiro"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <n v="14"/>
+    <s v="Cláudia Abreu"/>
+    <n v="3200"/>
+    <s v="b841f578-df33-4423-820e-dae951c6947b"/>
+    <n v="2"/>
+    <n v="30"/>
+    <s v="fecaca8d-9958-4841-82ae-a1bfaf0e9e1b"/>
+    <d v="2025-10-02T00:00:00"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Thursday "/>
+    <n v="275"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="ae29ba68-8506-4b3d-9dc4-b78d7b16cc50"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <s v="ad2ef0bb-6440-49cb-af54-350124e665bf"/>
+    <n v="276"/>
+    <d v="2025-10-17T14:00:00"/>
+    <d v="2025-10-17T16:00:00"/>
+    <s v="Reprovado"/>
+    <n v="6800"/>
+    <s v="ae29ba68-8506-4b3d-9dc4-b78d7b16cc50"/>
+    <n v="188"/>
+    <s v="Joana Fomm"/>
+    <s v="joana.fomm@example.com"/>
+    <n v="21981231146"/>
+    <d v="1998-09-14T00:00:00"/>
+    <s v="Ipanema"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua General Osório"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <n v="14"/>
+    <s v="Cláudia Abreu"/>
+    <n v="3200"/>
+    <s v="96ad25ad-886c-4e03-8cfb-2393690247e6"/>
+    <n v="1"/>
+    <n v="30"/>
+    <s v="ad2ef0bb-6440-49cb-af54-350124e665bf"/>
+    <d v="2025-10-17T00:00:00"/>
+    <n v="17"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Friday   "/>
+    <n v="290"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="c08c6eb9-311e-4f9a-9111-2deaa6c2da87"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <s v="5a662669-150d-4dbf-a2f7-f75d499b5d72"/>
+    <n v="253"/>
+    <d v="2025-10-10T14:00:00"/>
+    <d v="2025-10-10T16:00:00"/>
+    <s v="Aprovado"/>
+    <n v="8200"/>
+    <s v="c08c6eb9-311e-4f9a-9111-2deaa6c2da87"/>
+    <n v="172"/>
+    <s v="Bianca Castro"/>
+    <s v="bianca.castro@example.com"/>
+    <n v="21981231130"/>
+    <d v="2003-04-22T00:00:00"/>
+    <s v="Glória"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Ladeira da Glória"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <n v="14"/>
+    <s v="Cláudia Abreu"/>
+    <n v="3200"/>
+    <s v="96ad25ad-886c-4e03-8cfb-2393690247e6"/>
+    <n v="1"/>
+    <n v="30"/>
+    <s v="5a662669-150d-4dbf-a2f7-f75d499b5d72"/>
+    <d v="2025-10-10T00:00:00"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Friday   "/>
+    <n v="283"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="331c0a81-99a7-40d0-a2a4-637ed36bdb08"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <s v="fecaca8d-9958-4841-82ae-a1bfaf0e9e1b"/>
+    <n v="236"/>
+    <d v="2025-10-02T10:00:00"/>
+    <d v="2025-10-02T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="7000"/>
+    <s v="331c0a81-99a7-40d0-a2a4-637ed36bdb08"/>
+    <n v="165"/>
+    <s v="Renan Ferreira"/>
+    <s v="renan.f@example.com"/>
+    <n v="21981231123"/>
+    <d v="2002-04-09T00:00:00"/>
+    <s v="Flamengo"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Almirante Tamandaré"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <n v="14"/>
+    <s v="Cláudia Abreu"/>
+    <n v="3200"/>
+    <s v="96ad25ad-886c-4e03-8cfb-2393690247e6"/>
+    <n v="1"/>
+    <n v="30"/>
+    <s v="fecaca8d-9958-4841-82ae-a1bfaf0e9e1b"/>
+    <d v="2025-10-02T00:00:00"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Thursday "/>
+    <n v="275"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="d280cdad-01b6-4010-aa08-90275be80746"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <s v="fecaca8d-9958-4841-82ae-a1bfaf0e9e1b"/>
+    <n v="228"/>
+    <d v="2025-10-02T14:00:00"/>
+    <d v="2025-10-02T16:00:00"/>
+    <s v="Agendado"/>
+    <m/>
+    <s v="d280cdad-01b6-4010-aa08-90275be80746"/>
+    <n v="182"/>
+    <s v="Débora Secco"/>
+    <s v="debora.s@example.com"/>
+    <n v="21981231140"/>
+    <d v="2004-11-26T00:00:00"/>
+    <s v="Laranjeiras"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Ipiranga"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <n v="14"/>
+    <s v="Cláudia Abreu"/>
+    <n v="3200"/>
+    <s v="42532722-d893-405a-98c4-105da9dd5390"/>
+    <n v="4"/>
+    <n v="40"/>
+    <s v="fecaca8d-9958-4841-82ae-a1bfaf0e9e1b"/>
+    <d v="2025-10-02T00:00:00"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Thursday "/>
+    <n v="275"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="c64b733a-863f-45b6-98f3-d37c952e791e"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <s v="fecaca8d-9958-4841-82ae-a1bfaf0e9e1b"/>
+    <n v="230"/>
+    <d v="2025-10-02T14:00:00"/>
+    <d v="2025-10-02T16:00:00"/>
+    <s v="Agendado"/>
+    <m/>
+    <s v="c64b733a-863f-45b6-98f3-d37c952e791e"/>
+    <n v="184"/>
+    <s v="Fabiana Carla"/>
+    <s v="fabiana.c@example.com"/>
+    <n v="21981231142"/>
+    <d v="2003-03-03T00:00:00"/>
+    <s v="Laranjeiras"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Leite Leal"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <n v="14"/>
+    <s v="Cláudia Abreu"/>
+    <n v="3200"/>
+    <s v="42532722-d893-405a-98c4-105da9dd5390"/>
+    <n v="4"/>
+    <n v="40"/>
+    <s v="fecaca8d-9958-4841-82ae-a1bfaf0e9e1b"/>
+    <d v="2025-10-02T00:00:00"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Thursday "/>
+    <n v="275"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="d472b005-3a48-4614-9d26-65be1ec32eef"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <s v="ad2ef0bb-6440-49cb-af54-350124e665bf"/>
+    <n v="277"/>
+    <d v="2025-10-17T14:00:00"/>
+    <d v="2025-10-17T16:00:00"/>
+    <s v="Aprovado"/>
+    <n v="7500"/>
+    <s v="d472b005-3a48-4614-9d26-65be1ec32eef"/>
+    <n v="189"/>
+    <s v="Klebber Toledo"/>
+    <s v="k.toledo@example.com"/>
+    <n v="21981231147"/>
+    <d v="2004-06-14T00:00:00"/>
+    <s v="Ipanema"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Prudente de Morais"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <n v="14"/>
+    <s v="Cláudia Abreu"/>
+    <n v="3200"/>
+    <s v="96ad25ad-886c-4e03-8cfb-2393690247e6"/>
+    <n v="1"/>
+    <n v="30"/>
+    <s v="ad2ef0bb-6440-49cb-af54-350124e665bf"/>
+    <d v="2025-10-17T00:00:00"/>
+    <n v="17"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Friday   "/>
+    <n v="290"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="c49663e7-5252-4610-a8b5-95cff55fee96"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <s v="fecaca8d-9958-4841-82ae-a1bfaf0e9e1b"/>
+    <n v="229"/>
+    <d v="2025-10-02T14:00:00"/>
+    <d v="2025-10-02T16:00:00"/>
+    <s v="Agendado"/>
+    <m/>
+    <s v="c49663e7-5252-4610-a8b5-95cff55fee96"/>
+    <n v="183"/>
+    <s v="Elias Ricardo"/>
+    <s v="elias.r@example.com"/>
+    <n v="21981231141"/>
+    <d v="2005-07-19T00:00:00"/>
+    <s v="Laranjeiras"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Gago Coutinho"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <n v="14"/>
+    <s v="Cláudia Abreu"/>
+    <n v="3200"/>
+    <s v="42532722-d893-405a-98c4-105da9dd5390"/>
+    <n v="4"/>
+    <n v="40"/>
+    <s v="fecaca8d-9958-4841-82ae-a1bfaf0e9e1b"/>
+    <d v="2025-10-02T00:00:00"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Thursday "/>
+    <n v="275"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="63ab51d1-a73e-4666-8c1a-9754315b8945"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <s v="5a662669-150d-4dbf-a2f7-f75d499b5d72"/>
+    <n v="252"/>
+    <d v="2025-10-10T14:00:00"/>
+    <d v="2025-10-10T16:00:00"/>
+    <s v="Aprovado"/>
+    <n v="7800"/>
+    <s v="63ab51d1-a73e-4666-8c1a-9754315b8945"/>
+    <n v="171"/>
+    <s v="Igor Nascimento"/>
+    <s v="igor.n@example.com"/>
+    <n v="21981231129"/>
+    <d v="2004-01-03T00:00:00"/>
+    <s v="Glória"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua da Glória"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <n v="14"/>
+    <s v="Cláudia Abreu"/>
+    <n v="3200"/>
+    <s v="96ad25ad-886c-4e03-8cfb-2393690247e6"/>
+    <n v="1"/>
+    <n v="30"/>
+    <s v="5a662669-150d-4dbf-a2f7-f75d499b5d72"/>
+    <d v="2025-10-10T00:00:00"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Friday   "/>
+    <n v="283"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="f150aa97-912b-40e5-bc1a-9f88d58c5697"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <s v="f0db6dd4-d110-4ecf-99de-bf07469b6ace"/>
+    <n v="258"/>
+    <d v="2025-10-14T10:00:00"/>
+    <d v="2025-10-14T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="8500"/>
+    <s v="f150aa97-912b-40e5-bc1a-9f88d58c5697"/>
+    <n v="178"/>
+    <s v="Isabela Freitas"/>
+    <s v="isabela.f@example.com"/>
+    <n v="21981231136"/>
+    <d v="2005-04-02T00:00:00"/>
+    <s v="Catete"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Andrade Pertence"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <n v="14"/>
+    <s v="Cláudia Abreu"/>
+    <n v="3200"/>
+    <s v="42532722-d893-405a-98c4-105da9dd5390"/>
+    <n v="4"/>
+    <n v="40"/>
+    <s v="f0db6dd4-d110-4ecf-99de-bf07469b6ace"/>
+    <d v="2025-10-14T00:00:00"/>
+    <n v="14"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Tuesday  "/>
+    <n v="287"/>
+    <s v="Dia de Semana"/>
+  </r>
+  <r>
+    <s v="d280cdad-01b6-4010-aa08-90275be80746"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <s v="f0db6dd4-d110-4ecf-99de-bf07469b6ace"/>
+    <n v="259"/>
+    <d v="2025-10-14T10:00:00"/>
+    <d v="2025-10-14T12:00:00"/>
+    <s v="Aprovado"/>
+    <n v="9000"/>
+    <s v="d280cdad-01b6-4010-aa08-90275be80746"/>
+    <n v="182"/>
+    <s v="Débora Secco"/>
+    <s v="debora.s@example.com"/>
+    <n v="21981231140"/>
+    <d v="2004-11-26T00:00:00"/>
+    <s v="Laranjeiras"/>
+    <s v="Rio de Janeiro"/>
+    <s v="RJ"/>
+    <s v="Rua Ipiranga"/>
+    <s v="b492e362-50b5-4c53-8d55-12f0856ec5bb"/>
+    <n v="14"/>
+    <s v="Cláudia Abreu"/>
+    <n v="3200"/>
+    <s v="42532722-d893-405a-98c4-105da9dd5390"/>
+    <n v="4"/>
+    <n v="40"/>
+    <s v="f0db6dd4-d110-4ecf-99de-bf07469b6ace"/>
+    <d v="2025-10-14T00:00:00"/>
+    <n v="14"/>
+    <n v="10"/>
+    <n v="2025"/>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="Tuesday  "/>
+    <n v="287"/>
+    <s v="Dia de Semana"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
   <r>
     <n v="1"/>
@@ -14789,7 +16530,183 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CCC5BBF-019B-48D8-9453-01115237413B}" name="Tabela dinâmica8" cacheId="22" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69194859-BE17-451E-8332-D69F22BDA3A1}" name="PivotTable9" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="35">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of calendarionomemes" fld="31" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71973459-6666-42C8-A849-B7A6A6AF1542}" name="Tabela dinâmica2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A28:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="35">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="32"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de calendarionomediasemana" fld="32" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CCC5BBF-019B-48D8-9453-01115237413B}" name="Tabela dinâmica8" cacheId="29" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="G3:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField showAll="0"/>
@@ -14924,8 +16841,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D38B93F5-FF67-4DF0-A6A8-E0B00585C6DA}" name="Tabela dinâmica9" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D38B93F5-FF67-4DF0-A6A8-E0B00585C6DA}" name="Tabela dinâmica9" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -15305,104 +17222,6 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71973459-6666-42C8-A849-B7A6A6AF1542}" name="Tabela dinâmica2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A28:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="35">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="22" showAll="0"/>
-    <pivotField numFmtId="22" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="32"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de calendarionomediasemana" fld="32" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -15895,11 +17714,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6DB462-E0F1-4027-9BB9-2DF3D64C6A96}">
+  <dimension ref="A3:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="7">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BE6238-9A51-4E85-96B5-E63619542569}">
   <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20641,7 +22511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4DEE3E-8A8D-4D2D-9D74-46A278342429}">
   <dimension ref="A3:H36"/>
   <sheetViews>
@@ -20852,12 +22722,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1715FA22-77C6-4AC1-9AA1-B04A10BDA09B}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="82" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
